--- a/California Literacy Data.xlsx
+++ b/California Literacy Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramannaik/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BD7C3FA4-9876-B947-BE6F-C2835E5BB0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F2CB8E5A-15FE-1948-871B-B3E2ABFA9A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="680" windowWidth="28040" windowHeight="16740"/>
   </bookViews>
@@ -23,12 +23,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Location</t>
-  </si>
-  <si>
-    <t>Lower bound</t>
-  </si>
-  <si>
-    <t>Upper bound</t>
   </si>
   <si>
     <t>California</t>
@@ -367,13 +361,19 @@
     </r>
   </si>
   <si>
-    <t>Average percent lacking basic prose literacy skills</t>
-  </si>
-  <si>
     <t>FIPS code</t>
   </si>
   <si>
     <t>Population size</t>
+  </si>
+  <si>
+    <t>Average percentage Lacking Prose Literacy Skills</t>
+  </si>
+  <si>
+    <t>Upper Bound</t>
+  </si>
+  <si>
+    <t>Lower Bound</t>
   </si>
 </sst>
 </file>
@@ -747,7 +747,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -865,15 +865,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -936,12 +927,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -959,25 +947,10 @@
     <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -985,6 +958,15 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1341,10 +1323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1357,1275 +1339,1263 @@
     <col min="6" max="6" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="B2" s="3">
+        <v>6000</v>
+      </c>
+      <c r="C2" s="4">
+        <v>26029840</v>
+      </c>
+      <c r="D2" s="5">
+        <v>23.050444250999998</v>
+      </c>
+      <c r="E2" s="6">
+        <v>20.322887526999999</v>
+      </c>
+      <c r="F2" s="6">
+        <v>26.162828222000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3">
+        <v>6001</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1100269</v>
+      </c>
+      <c r="D3" s="5">
+        <v>18.508876259000001</v>
+      </c>
+      <c r="E3" s="6">
+        <v>11.91</v>
+      </c>
+      <c r="F3" s="6">
+        <v>28.33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
-        <v>6000</v>
-      </c>
-      <c r="C3" s="5">
-        <v>26029840</v>
-      </c>
-      <c r="D3" s="6">
-        <v>23.050444250999998</v>
-      </c>
-      <c r="E3" s="7">
-        <v>20.322887526999999</v>
-      </c>
-      <c r="F3" s="7">
-        <v>26.162828222000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="3">
+        <v>6003</v>
+      </c>
+      <c r="C4" s="2">
+        <v>983</v>
+      </c>
+      <c r="D4" s="5">
+        <v>8.2198709263000005</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3.8031399649000002</v>
+      </c>
+      <c r="F4" s="6">
+        <v>15.185960174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
-        <v>6001</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1100269</v>
-      </c>
-      <c r="D4" s="6">
-        <v>18.508876259000001</v>
-      </c>
-      <c r="E4" s="7">
-        <v>11.91</v>
-      </c>
-      <c r="F4" s="7">
-        <v>28.33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="3">
+        <v>6005</v>
+      </c>
+      <c r="C5" s="4">
+        <v>27145</v>
+      </c>
+      <c r="D5" s="5">
+        <v>9.6323446582999992</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4.7239394324999999</v>
+      </c>
+      <c r="F5" s="6">
+        <v>17.152866290999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
-        <v>6003</v>
-      </c>
-      <c r="C5" s="3">
-        <v>983</v>
-      </c>
-      <c r="D5" s="6">
-        <v>8.2198709263000005</v>
-      </c>
-      <c r="E5" s="7">
-        <v>3.8031399649000002</v>
-      </c>
-      <c r="F5" s="7">
-        <v>15.185960174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="3">
+        <v>6007</v>
+      </c>
+      <c r="C6" s="4">
+        <v>162597</v>
+      </c>
+      <c r="D6" s="5">
+        <v>11.052692199000001</v>
+      </c>
+      <c r="E6" s="6">
+        <v>5.2859160196000001</v>
+      </c>
+      <c r="F6" s="6">
+        <v>19.818750815000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
-        <v>6005</v>
-      </c>
-      <c r="C6" s="5">
-        <v>27145</v>
-      </c>
-      <c r="D6" s="6">
-        <v>9.6323446582999992</v>
-      </c>
-      <c r="E6" s="7">
-        <v>4.7239394324999999</v>
-      </c>
-      <c r="F6" s="7">
-        <v>17.152866290999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="3">
+        <v>6009</v>
+      </c>
+      <c r="C7" s="4">
+        <v>36110</v>
+      </c>
+      <c r="D7" s="5">
+        <v>8.6166538864</v>
+      </c>
+      <c r="E7" s="6">
+        <v>4.1665431187999999</v>
+      </c>
+      <c r="F7" s="6">
+        <v>15.545713532000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4">
-        <v>6007</v>
-      </c>
-      <c r="C7" s="5">
-        <v>162597</v>
-      </c>
-      <c r="D7" s="6">
-        <v>11.052692199000001</v>
-      </c>
-      <c r="E7" s="7">
-        <v>5.2859160196000001</v>
-      </c>
-      <c r="F7" s="7">
-        <v>19.818750815000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="3">
+        <v>6011</v>
+      </c>
+      <c r="C8" s="4">
+        <v>14057</v>
+      </c>
+      <c r="D8" s="5">
+        <v>33.796134512000002</v>
+      </c>
+      <c r="E8" s="6">
+        <v>19.506437447</v>
+      </c>
+      <c r="F8" s="6">
+        <v>50.706261372999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
-        <v>6009</v>
-      </c>
-      <c r="C8" s="5">
-        <v>36110</v>
-      </c>
-      <c r="D8" s="6">
-        <v>8.6166538864</v>
-      </c>
-      <c r="E8" s="7">
-        <v>4.1665431187999999</v>
-      </c>
-      <c r="F8" s="7">
-        <v>15.545713532000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="3">
+        <v>6013</v>
+      </c>
+      <c r="C9" s="4">
+        <v>751262</v>
+      </c>
+      <c r="D9" s="5">
+        <v>12.334495259000001</v>
+      </c>
+      <c r="E9" s="6">
+        <v>7.0549499931000001</v>
+      </c>
+      <c r="F9" s="6">
+        <v>20.330249940000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
-        <v>6011</v>
-      </c>
-      <c r="C9" s="5">
-        <v>14057</v>
-      </c>
-      <c r="D9" s="6">
-        <v>33.796134512000002</v>
-      </c>
-      <c r="E9" s="7">
-        <v>19.506437447</v>
-      </c>
-      <c r="F9" s="7">
-        <v>50.706261372999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="3">
+        <v>6015</v>
+      </c>
+      <c r="C10" s="4">
+        <v>19085</v>
+      </c>
+      <c r="D10" s="5">
+        <v>14.534953591000001</v>
+      </c>
+      <c r="E10" s="6">
+        <v>7.2076932971999996</v>
+      </c>
+      <c r="F10" s="6">
+        <v>25.187059546</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
-        <v>6013</v>
-      </c>
-      <c r="C10" s="5">
-        <v>751262</v>
-      </c>
-      <c r="D10" s="6">
-        <v>12.334495259000001</v>
-      </c>
-      <c r="E10" s="7">
-        <v>7.0549499931000001</v>
-      </c>
-      <c r="F10" s="7">
-        <v>20.330249940000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="3">
+        <v>6017</v>
+      </c>
+      <c r="C11" s="4">
+        <v>131630</v>
+      </c>
+      <c r="D11" s="5">
+        <v>7.1858869234</v>
+      </c>
+      <c r="E11" s="6">
+        <v>3.3818725905</v>
+      </c>
+      <c r="F11" s="6">
+        <v>13.086246622999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4">
-        <v>6015</v>
-      </c>
-      <c r="C11" s="5">
-        <v>19085</v>
-      </c>
-      <c r="D11" s="6">
-        <v>14.534953591000001</v>
-      </c>
-      <c r="E11" s="7">
-        <v>7.2076932971999996</v>
-      </c>
-      <c r="F11" s="7">
-        <v>25.187059546</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="3">
+        <v>6019</v>
+      </c>
+      <c r="C12" s="4">
+        <v>596940</v>
+      </c>
+      <c r="D12" s="5">
+        <v>26.855627566999999</v>
+      </c>
+      <c r="E12" s="6">
+        <v>14.987748579</v>
+      </c>
+      <c r="F12" s="6">
+        <v>42.171768149000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4">
-        <v>6017</v>
-      </c>
-      <c r="C12" s="5">
-        <v>131630</v>
-      </c>
-      <c r="D12" s="6">
-        <v>7.1858869234</v>
-      </c>
-      <c r="E12" s="7">
-        <v>3.3818725905</v>
-      </c>
-      <c r="F12" s="7">
-        <v>13.086246622999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="B13" s="3">
+        <v>6021</v>
+      </c>
+      <c r="C13" s="4">
+        <v>19784</v>
+      </c>
+      <c r="D13" s="5">
+        <v>21.855196452000001</v>
+      </c>
+      <c r="E13" s="6">
+        <v>11.669925105000001</v>
+      </c>
+      <c r="F13" s="6">
+        <v>35.571929033000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4">
-        <v>6019</v>
-      </c>
-      <c r="C13" s="5">
-        <v>596940</v>
-      </c>
-      <c r="D13" s="6">
-        <v>26.855627566999999</v>
-      </c>
-      <c r="E13" s="7">
-        <v>14.987748579</v>
-      </c>
-      <c r="F13" s="7">
-        <v>42.171768149000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="B14" s="3">
+        <v>6023</v>
+      </c>
+      <c r="C14" s="4">
+        <v>99036</v>
+      </c>
+      <c r="D14" s="5">
+        <v>9.3583417338999997</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4.2926000827999999</v>
+      </c>
+      <c r="F14" s="6">
+        <v>17.351945161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="4">
-        <v>6021</v>
-      </c>
-      <c r="C14" s="5">
-        <v>19784</v>
-      </c>
-      <c r="D14" s="6">
-        <v>21.855196452000001</v>
-      </c>
-      <c r="E14" s="7">
-        <v>11.669925105000001</v>
-      </c>
-      <c r="F14" s="7">
-        <v>35.571929033000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="B15" s="3">
+        <v>6025</v>
+      </c>
+      <c r="C15" s="4">
+        <v>99636</v>
+      </c>
+      <c r="D15" s="5">
+        <v>41.465329371000003</v>
+      </c>
+      <c r="E15" s="6">
+        <v>25.178644255999998</v>
+      </c>
+      <c r="F15" s="6">
+        <v>59.488079257999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="4">
-        <v>6023</v>
-      </c>
-      <c r="C15" s="5">
-        <v>99036</v>
-      </c>
-      <c r="D15" s="6">
-        <v>9.3583417338999997</v>
-      </c>
-      <c r="E15" s="7">
-        <v>4.2926000827999999</v>
-      </c>
-      <c r="F15" s="7">
-        <v>17.351945161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="B16" s="3">
+        <v>6027</v>
+      </c>
+      <c r="C16" s="4">
+        <v>14515</v>
+      </c>
+      <c r="D16" s="5">
+        <v>12.332982981000001</v>
+      </c>
+      <c r="E16" s="6">
+        <v>6.147921964</v>
+      </c>
+      <c r="F16" s="6">
+        <v>21.466444324000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="4">
-        <v>6025</v>
-      </c>
-      <c r="C16" s="5">
-        <v>99636</v>
-      </c>
-      <c r="D16" s="6">
-        <v>41.465329371000003</v>
-      </c>
-      <c r="E16" s="7">
-        <v>25.178644255999998</v>
-      </c>
-      <c r="F16" s="7">
-        <v>59.488079257999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="3">
+        <v>6029</v>
+      </c>
+      <c r="C17" s="4">
+        <v>489448</v>
+      </c>
+      <c r="D17" s="5">
+        <v>24.104823188000001</v>
+      </c>
+      <c r="E17" s="6">
+        <v>13.192467251</v>
+      </c>
+      <c r="F17" s="6">
+        <v>38.304241404000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="4">
-        <v>6027</v>
-      </c>
-      <c r="C17" s="5">
-        <v>14515</v>
-      </c>
-      <c r="D17" s="6">
-        <v>12.332982981000001</v>
-      </c>
-      <c r="E17" s="7">
-        <v>6.147921964</v>
-      </c>
-      <c r="F17" s="7">
-        <v>21.466444324000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="3">
+        <v>6031</v>
+      </c>
+      <c r="C18" s="4">
+        <v>86612</v>
+      </c>
+      <c r="D18" s="5">
+        <v>25.972225367</v>
+      </c>
+      <c r="E18" s="6">
+        <v>14.16308695</v>
+      </c>
+      <c r="F18" s="6">
+        <v>41.254032377999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="4">
-        <v>6029</v>
-      </c>
-      <c r="C18" s="5">
-        <v>489448</v>
-      </c>
-      <c r="D18" s="6">
-        <v>24.104823188000001</v>
-      </c>
-      <c r="E18" s="7">
-        <v>13.192467251</v>
-      </c>
-      <c r="F18" s="7">
-        <v>38.304241404000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="B19" s="3">
+        <v>6033</v>
+      </c>
+      <c r="C19" s="4">
+        <v>49207</v>
+      </c>
+      <c r="D19" s="5">
+        <v>12.860445421</v>
+      </c>
+      <c r="E19" s="6">
+        <v>6.3268972233999996</v>
+      </c>
+      <c r="F19" s="6">
+        <v>22.657634689000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="4">
-        <v>6031</v>
-      </c>
-      <c r="C19" s="5">
-        <v>86612</v>
-      </c>
-      <c r="D19" s="6">
-        <v>25.972225367</v>
-      </c>
-      <c r="E19" s="7">
-        <v>14.16308695</v>
-      </c>
-      <c r="F19" s="7">
-        <v>41.254032377999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="B20" s="3">
+        <v>6035</v>
+      </c>
+      <c r="C20" s="4">
+        <v>20539</v>
+      </c>
+      <c r="D20" s="5">
+        <v>12.030447503</v>
+      </c>
+      <c r="E20" s="6">
+        <v>5.9678961436</v>
+      </c>
+      <c r="F20" s="6">
+        <v>21.135818065999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="4">
-        <v>6033</v>
-      </c>
-      <c r="C20" s="5">
-        <v>49207</v>
-      </c>
-      <c r="D20" s="6">
-        <v>12.860445421</v>
-      </c>
-      <c r="E20" s="7">
-        <v>6.3268972233999996</v>
-      </c>
-      <c r="F20" s="7">
-        <v>22.657634689000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="B21" s="3">
+        <v>6037</v>
+      </c>
+      <c r="C21" s="4">
+        <v>7206479</v>
+      </c>
+      <c r="D21" s="5">
+        <v>33.495405925999997</v>
+      </c>
+      <c r="E21" s="6">
+        <v>27.78</v>
+      </c>
+      <c r="F21" s="6">
+        <v>40.770000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="4">
-        <v>6035</v>
-      </c>
-      <c r="C21" s="5">
-        <v>20539</v>
-      </c>
-      <c r="D21" s="6">
-        <v>12.030447503</v>
-      </c>
-      <c r="E21" s="7">
-        <v>5.9678961436</v>
-      </c>
-      <c r="F21" s="7">
-        <v>21.135818065999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="B22" s="3">
+        <v>6039</v>
+      </c>
+      <c r="C22" s="4">
+        <v>92226</v>
+      </c>
+      <c r="D22" s="5">
+        <v>28.51771278</v>
+      </c>
+      <c r="E22" s="6">
+        <v>15.954361091999999</v>
+      </c>
+      <c r="F22" s="6">
+        <v>44.476044641999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="4">
-        <v>6037</v>
-      </c>
-      <c r="C22" s="5">
-        <v>7206479</v>
-      </c>
-      <c r="D22" s="6">
-        <v>33.495405925999997</v>
-      </c>
-      <c r="E22" s="7">
-        <v>27.78</v>
-      </c>
-      <c r="F22" s="7">
-        <v>40.770000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="B23" s="3">
+        <v>6041</v>
+      </c>
+      <c r="C23" s="4">
+        <v>190711</v>
+      </c>
+      <c r="D23" s="5">
+        <v>7.4261260773000002</v>
+      </c>
+      <c r="E23" s="6">
+        <v>3.4459278455</v>
+      </c>
+      <c r="F23" s="6">
+        <v>13.725515589</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="4">
-        <v>6039</v>
-      </c>
-      <c r="C23" s="5">
-        <v>92226</v>
-      </c>
-      <c r="D23" s="6">
-        <v>28.51771278</v>
-      </c>
-      <c r="E23" s="7">
-        <v>15.954361091999999</v>
-      </c>
-      <c r="F23" s="7">
-        <v>44.476044641999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="B24" s="3">
+        <v>6043</v>
+      </c>
+      <c r="C24" s="4">
+        <v>13433</v>
+      </c>
+      <c r="D24" s="5">
+        <v>8.6305404649999993</v>
+      </c>
+      <c r="E24" s="6">
+        <v>4.0949500377000003</v>
+      </c>
+      <c r="F24" s="6">
+        <v>15.661598192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="4">
-        <v>6041</v>
-      </c>
-      <c r="C24" s="5">
-        <v>190711</v>
-      </c>
-      <c r="D24" s="6">
-        <v>7.4261260773000002</v>
-      </c>
-      <c r="E24" s="7">
-        <v>3.4459278455</v>
-      </c>
-      <c r="F24" s="7">
-        <v>13.725515589</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="B25" s="3">
+        <v>6045</v>
+      </c>
+      <c r="C25" s="4">
+        <v>67543</v>
+      </c>
+      <c r="D25" s="5">
+        <v>12.821987154</v>
+      </c>
+      <c r="E25" s="6">
+        <v>6.4322604414000004</v>
+      </c>
+      <c r="F25" s="6">
+        <v>22.302260486000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="4">
-        <v>6043</v>
-      </c>
-      <c r="C25" s="5">
-        <v>13433</v>
-      </c>
-      <c r="D25" s="6">
-        <v>8.6305404649999993</v>
-      </c>
-      <c r="E25" s="7">
-        <v>4.0949500377000003</v>
-      </c>
-      <c r="F25" s="7">
-        <v>15.661598192</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="B26" s="3">
+        <v>6047</v>
+      </c>
+      <c r="C26" s="4">
+        <v>159877</v>
+      </c>
+      <c r="D26" s="5">
+        <v>23.715119999999999</v>
+      </c>
+      <c r="E26" s="6">
+        <v>15.69</v>
+      </c>
+      <c r="F26" s="6">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="4">
-        <v>6045</v>
-      </c>
-      <c r="C26" s="5">
-        <v>67543</v>
-      </c>
-      <c r="D26" s="6">
-        <v>12.821987154</v>
-      </c>
-      <c r="E26" s="7">
-        <v>6.4322604414000004</v>
-      </c>
-      <c r="F26" s="7">
-        <v>22.302260486000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="B27" s="3">
+        <v>6049</v>
+      </c>
+      <c r="C27" s="4">
+        <v>7225</v>
+      </c>
+      <c r="D27" s="5">
+        <v>12.566835342999999</v>
+      </c>
+      <c r="E27" s="6">
+        <v>6.1899496842000001</v>
+      </c>
+      <c r="F27" s="6">
+        <v>22.077581923</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="4">
-        <v>6047</v>
-      </c>
-      <c r="C27" s="5">
-        <v>159877</v>
-      </c>
-      <c r="D27" s="6">
-        <v>23.715119999999999</v>
-      </c>
-      <c r="E27" s="7">
-        <v>15.69</v>
-      </c>
-      <c r="F27" s="7">
-        <v>35.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="B28" s="3">
+        <v>6051</v>
+      </c>
+      <c r="C28" s="4">
+        <v>9952</v>
+      </c>
+      <c r="D28" s="5">
+        <v>11.121554738</v>
+      </c>
+      <c r="E28" s="6">
+        <v>5.4360611888000001</v>
+      </c>
+      <c r="F28" s="6">
+        <v>19.663853899999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="4">
-        <v>6049</v>
-      </c>
-      <c r="C28" s="5">
-        <v>7225</v>
-      </c>
-      <c r="D28" s="6">
-        <v>12.566835342999999</v>
-      </c>
-      <c r="E28" s="7">
-        <v>6.1899496842000001</v>
-      </c>
-      <c r="F28" s="7">
-        <v>22.077581923</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="B29" s="3">
+        <v>6053</v>
+      </c>
+      <c r="C29" s="4">
+        <v>290407</v>
+      </c>
+      <c r="D29" s="5">
+        <v>28.006742602999999</v>
+      </c>
+      <c r="E29" s="6">
+        <v>15.668356758</v>
+      </c>
+      <c r="F29" s="6">
+        <v>43.583235936999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="4">
-        <v>6051</v>
-      </c>
-      <c r="C29" s="5">
-        <v>9952</v>
-      </c>
-      <c r="D29" s="6">
-        <v>11.121554738</v>
-      </c>
-      <c r="E29" s="7">
-        <v>5.4360611888000001</v>
-      </c>
-      <c r="F29" s="7">
-        <v>19.663853899999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+      <c r="B30" s="3">
+        <v>6055</v>
+      </c>
+      <c r="C30" s="4">
+        <v>99044</v>
+      </c>
+      <c r="D30" s="5">
+        <v>14.449704016</v>
+      </c>
+      <c r="E30" s="6">
+        <v>7.4033970625999999</v>
+      </c>
+      <c r="F30" s="6">
+        <v>24.458206832999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="4">
-        <v>6053</v>
-      </c>
-      <c r="C30" s="5">
-        <v>290407</v>
-      </c>
-      <c r="D30" s="6">
-        <v>28.006742602999999</v>
-      </c>
-      <c r="E30" s="7">
-        <v>15.668356758</v>
-      </c>
-      <c r="F30" s="7">
-        <v>43.583235936999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+      <c r="B31" s="3">
+        <v>6057</v>
+      </c>
+      <c r="C31" s="4">
+        <v>77460</v>
+      </c>
+      <c r="D31" s="5">
+        <v>7.0754599879000004</v>
+      </c>
+      <c r="E31" s="6">
+        <v>3.3247168502000002</v>
+      </c>
+      <c r="F31" s="6">
+        <v>12.842092797999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="4">
-        <v>6055</v>
-      </c>
-      <c r="C31" s="5">
-        <v>99044</v>
-      </c>
-      <c r="D31" s="6">
-        <v>14.449704016</v>
-      </c>
-      <c r="E31" s="7">
-        <v>7.4033970625999999</v>
-      </c>
-      <c r="F31" s="7">
-        <v>24.458206832999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+      <c r="B32" s="3">
+        <v>6059</v>
+      </c>
+      <c r="C32" s="4">
+        <v>2191819</v>
+      </c>
+      <c r="D32" s="5">
+        <v>26.012352592999999</v>
+      </c>
+      <c r="E32" s="6">
+        <v>19.14</v>
+      </c>
+      <c r="F32" s="6">
+        <v>35.600249966</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="4">
-        <v>6057</v>
-      </c>
-      <c r="C32" s="5">
-        <v>77460</v>
-      </c>
-      <c r="D32" s="6">
-        <v>7.0754599879000004</v>
-      </c>
-      <c r="E32" s="7">
-        <v>3.3247168502000002</v>
-      </c>
-      <c r="F32" s="7">
-        <v>12.842092797999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+      <c r="B33" s="3">
+        <v>6061</v>
+      </c>
+      <c r="C33" s="4">
+        <v>226368</v>
+      </c>
+      <c r="D33" s="5">
+        <v>6.7175038712999999</v>
+      </c>
+      <c r="E33" s="6">
+        <v>3.1082978146000002</v>
+      </c>
+      <c r="F33" s="6">
+        <v>12.467112152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="4">
-        <v>6059</v>
-      </c>
-      <c r="C33" s="5">
-        <v>2191819</v>
-      </c>
-      <c r="D33" s="6">
-        <v>26.012352592999999</v>
-      </c>
-      <c r="E33" s="7">
-        <v>19.14</v>
-      </c>
-      <c r="F33" s="7">
-        <v>35.600249966</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="B34" s="3">
+        <v>6063</v>
+      </c>
+      <c r="C34" s="4">
+        <v>17215</v>
+      </c>
+      <c r="D34" s="5">
+        <v>8.2023538857999991</v>
+      </c>
+      <c r="E34" s="6">
+        <v>3.8271410203</v>
+      </c>
+      <c r="F34" s="6">
+        <v>15.082056498</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="4">
-        <v>6061</v>
-      </c>
-      <c r="C34" s="5">
-        <v>226368</v>
-      </c>
-      <c r="D34" s="6">
-        <v>6.7175038712999999</v>
-      </c>
-      <c r="E34" s="7">
-        <v>3.1082978146000002</v>
-      </c>
-      <c r="F34" s="7">
-        <v>12.467112152</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+      <c r="B35" s="3">
+        <v>6065</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1280162</v>
+      </c>
+      <c r="D35" s="5">
+        <v>19.948283332999999</v>
+      </c>
+      <c r="E35" s="6">
+        <v>14.29</v>
+      </c>
+      <c r="F35" s="6">
+        <v>28.150249957</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="4">
-        <v>6063</v>
-      </c>
-      <c r="C35" s="5">
-        <v>17215</v>
-      </c>
-      <c r="D35" s="6">
-        <v>8.2023538857999991</v>
-      </c>
-      <c r="E35" s="7">
-        <v>3.8271410203</v>
-      </c>
-      <c r="F35" s="7">
-        <v>15.082056498</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+      <c r="B36" s="3">
+        <v>6067</v>
+      </c>
+      <c r="C36" s="4">
+        <v>975882</v>
+      </c>
+      <c r="D36" s="5">
+        <v>12.723638814999999</v>
+      </c>
+      <c r="E36" s="6">
+        <v>7.8659499938000002</v>
+      </c>
+      <c r="F36" s="6">
+        <v>20.350249940000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="4">
-        <v>6065</v>
-      </c>
-      <c r="C36" s="5">
-        <v>1280162</v>
-      </c>
-      <c r="D36" s="6">
-        <v>19.948283332999999</v>
-      </c>
-      <c r="E36" s="7">
-        <v>14.29</v>
-      </c>
-      <c r="F36" s="7">
-        <v>28.150249957</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+      <c r="B37" s="3">
+        <v>6069</v>
+      </c>
+      <c r="C37" s="4">
+        <v>39736</v>
+      </c>
+      <c r="D37" s="5">
+        <v>18.569951175</v>
+      </c>
+      <c r="E37" s="6">
+        <v>9.2657463918000005</v>
+      </c>
+      <c r="F37" s="6">
+        <v>31.302978528000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="4">
-        <v>6067</v>
-      </c>
-      <c r="C37" s="5">
-        <v>975882</v>
-      </c>
-      <c r="D37" s="6">
-        <v>12.723638814999999</v>
-      </c>
-      <c r="E37" s="7">
-        <v>7.8659499938000002</v>
-      </c>
-      <c r="F37" s="7">
-        <v>20.350249940000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+      <c r="B38" s="3">
+        <v>6071</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1296585</v>
+      </c>
+      <c r="D38" s="5">
+        <v>20.205276438999999</v>
+      </c>
+      <c r="E38" s="6">
+        <v>10.591036430999999</v>
+      </c>
+      <c r="F38" s="6">
+        <v>33.187839910999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="4">
-        <v>6069</v>
-      </c>
-      <c r="C38" s="5">
-        <v>39736</v>
-      </c>
-      <c r="D38" s="6">
-        <v>18.569951175</v>
-      </c>
-      <c r="E38" s="7">
-        <v>9.2657463918000005</v>
-      </c>
-      <c r="F38" s="7">
-        <v>31.302978528000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+      <c r="B39" s="3">
+        <v>6073</v>
+      </c>
+      <c r="C39" s="4">
+        <v>2144799</v>
+      </c>
+      <c r="D39" s="5">
+        <v>21.145159629999998</v>
+      </c>
+      <c r="E39" s="6">
+        <v>15.17</v>
+      </c>
+      <c r="F39" s="6">
+        <v>29.84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="4">
-        <v>6071</v>
-      </c>
-      <c r="C39" s="5">
-        <v>1296585</v>
-      </c>
-      <c r="D39" s="6">
-        <v>20.205276438999999</v>
-      </c>
-      <c r="E39" s="7">
-        <v>10.591036430999999</v>
-      </c>
-      <c r="F39" s="7">
-        <v>33.187839910999998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+      <c r="B40" s="3">
+        <v>6075</v>
+      </c>
+      <c r="C40" s="4">
+        <v>629606</v>
+      </c>
+      <c r="D40" s="5">
+        <v>18.089493028</v>
+      </c>
+      <c r="E40" s="6">
+        <v>8.9181457518999991</v>
+      </c>
+      <c r="F40" s="6">
+        <v>31.127466542000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="4">
-        <v>6073</v>
-      </c>
-      <c r="C40" s="5">
-        <v>2144799</v>
-      </c>
-      <c r="D40" s="6">
-        <v>21.145159629999998</v>
-      </c>
-      <c r="E40" s="7">
-        <v>15.17</v>
-      </c>
-      <c r="F40" s="7">
-        <v>29.84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+      <c r="B41" s="3">
+        <v>6077</v>
+      </c>
+      <c r="C41" s="4">
+        <v>444038</v>
+      </c>
+      <c r="D41" s="5">
+        <v>22.537170240999998</v>
+      </c>
+      <c r="E41" s="6">
+        <v>12.220919902</v>
+      </c>
+      <c r="F41" s="6">
+        <v>36.354196514000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="4">
-        <v>6075</v>
-      </c>
-      <c r="C41" s="5">
-        <v>629606</v>
-      </c>
-      <c r="D41" s="6">
-        <v>18.089493028</v>
-      </c>
-      <c r="E41" s="7">
-        <v>8.9181457518999991</v>
-      </c>
-      <c r="F41" s="7">
-        <v>31.127466542000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+      <c r="B42" s="3">
+        <v>6079</v>
+      </c>
+      <c r="C42" s="4">
+        <v>193050</v>
+      </c>
+      <c r="D42" s="5">
+        <v>10.050560852</v>
+      </c>
+      <c r="E42" s="6">
+        <v>4.8607831500999996</v>
+      </c>
+      <c r="F42" s="6">
+        <v>17.996992328000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="4">
-        <v>6077</v>
-      </c>
-      <c r="C42" s="5">
-        <v>444038</v>
-      </c>
-      <c r="D42" s="6">
-        <v>22.537170240999998</v>
-      </c>
-      <c r="E42" s="7">
-        <v>12.220919902</v>
-      </c>
-      <c r="F42" s="7">
-        <v>36.354196514000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+      <c r="B43" s="3">
+        <v>6081</v>
+      </c>
+      <c r="C43" s="4">
+        <v>539763</v>
+      </c>
+      <c r="D43" s="5">
+        <v>15.405869245</v>
+      </c>
+      <c r="E43" s="6">
+        <v>7.5451151960000002</v>
+      </c>
+      <c r="F43" s="6">
+        <v>26.689970319</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="4">
-        <v>6079</v>
-      </c>
-      <c r="C43" s="5">
-        <v>193050</v>
-      </c>
-      <c r="D43" s="6">
-        <v>10.050560852</v>
-      </c>
-      <c r="E43" s="7">
-        <v>4.8607831500999996</v>
-      </c>
-      <c r="F43" s="7">
-        <v>17.996992328000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+      <c r="B44" s="3">
+        <v>6083</v>
+      </c>
+      <c r="C44" s="4">
+        <v>298172</v>
+      </c>
+      <c r="D44" s="5">
+        <v>17.679060902</v>
+      </c>
+      <c r="E44" s="6">
+        <v>9.1925201403999992</v>
+      </c>
+      <c r="F44" s="6">
+        <v>29.623691350000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="4">
-        <v>6081</v>
-      </c>
-      <c r="C44" s="5">
-        <v>539763</v>
-      </c>
-      <c r="D44" s="6">
-        <v>15.405869245</v>
-      </c>
-      <c r="E44" s="7">
-        <v>7.5451151960000002</v>
-      </c>
-      <c r="F44" s="7">
-        <v>26.689970319</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
+      <c r="B45" s="3">
+        <v>6085</v>
+      </c>
+      <c r="C45" s="4">
+        <v>1263883</v>
+      </c>
+      <c r="D45" s="5">
+        <v>16.124491481</v>
+      </c>
+      <c r="E45" s="6">
+        <v>9.8679499951</v>
+      </c>
+      <c r="F45" s="6">
+        <v>26.02</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="4">
-        <v>6083</v>
-      </c>
-      <c r="C45" s="5">
-        <v>298172</v>
-      </c>
-      <c r="D45" s="6">
-        <v>17.679060902</v>
-      </c>
-      <c r="E45" s="7">
-        <v>9.1925201403999992</v>
-      </c>
-      <c r="F45" s="7">
-        <v>29.623691350000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
+      <c r="B46" s="3">
+        <v>6087</v>
+      </c>
+      <c r="C46" s="4">
+        <v>191051</v>
+      </c>
+      <c r="D46" s="5">
+        <v>13.042941869</v>
+      </c>
+      <c r="E46" s="6">
+        <v>6.4597003399000004</v>
+      </c>
+      <c r="F46" s="6">
+        <v>22.553479370000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="4">
-        <v>6085</v>
-      </c>
-      <c r="C46" s="5">
-        <v>1263883</v>
-      </c>
-      <c r="D46" s="6">
-        <v>16.124491481</v>
-      </c>
-      <c r="E46" s="7">
-        <v>9.8679499951</v>
-      </c>
-      <c r="F46" s="7">
-        <v>26.02</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+      <c r="B47" s="3">
+        <v>6089</v>
+      </c>
+      <c r="C47" s="4">
+        <v>134618</v>
+      </c>
+      <c r="D47" s="5">
+        <v>9.5055977656999993</v>
+      </c>
+      <c r="E47" s="6">
+        <v>4.5361204042000001</v>
+      </c>
+      <c r="F47" s="6">
+        <v>17.197753780999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="4">
-        <v>6087</v>
-      </c>
-      <c r="C47" s="5">
-        <v>191051</v>
-      </c>
-      <c r="D47" s="6">
-        <v>13.042941869</v>
-      </c>
-      <c r="E47" s="7">
-        <v>6.4597003399000004</v>
-      </c>
-      <c r="F47" s="7">
-        <v>22.553479370000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
+      <c r="B48" s="3">
+        <v>6091</v>
+      </c>
+      <c r="C48" s="4">
+        <v>2880</v>
+      </c>
+      <c r="D48" s="5">
+        <v>9.1765562730999992</v>
+      </c>
+      <c r="E48" s="6">
+        <v>4.3271114748999997</v>
+      </c>
+      <c r="F48" s="6">
+        <v>16.830710989</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="4">
-        <v>6089</v>
-      </c>
-      <c r="C48" s="5">
-        <v>134618</v>
-      </c>
-      <c r="D48" s="6">
-        <v>9.5055977656999993</v>
-      </c>
-      <c r="E48" s="7">
-        <v>4.5361204042000001</v>
-      </c>
-      <c r="F48" s="7">
-        <v>17.197753780999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
+      <c r="B49" s="3">
+        <v>6093</v>
+      </c>
+      <c r="C49" s="4">
+        <v>35381</v>
+      </c>
+      <c r="D49" s="5">
+        <v>10.274395374999999</v>
+      </c>
+      <c r="E49" s="6">
+        <v>4.8548810961999997</v>
+      </c>
+      <c r="F49" s="6">
+        <v>18.744356821</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="4">
-        <v>6091</v>
-      </c>
-      <c r="C49" s="5">
-        <v>2880</v>
-      </c>
-      <c r="D49" s="6">
-        <v>9.1765562730999992</v>
-      </c>
-      <c r="E49" s="7">
-        <v>4.3271114748999997</v>
-      </c>
-      <c r="F49" s="7">
-        <v>16.830710989</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
+      <c r="B50" s="3">
+        <v>6095</v>
+      </c>
+      <c r="C50" s="4">
+        <v>294294</v>
+      </c>
+      <c r="D50" s="5">
+        <v>14.278873618</v>
+      </c>
+      <c r="E50" s="6">
+        <v>7.3529789635</v>
+      </c>
+      <c r="F50" s="6">
+        <v>24.264894025</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="4">
-        <v>6093</v>
-      </c>
-      <c r="C50" s="5">
-        <v>35381</v>
-      </c>
-      <c r="D50" s="6">
-        <v>10.274395374999999</v>
-      </c>
-      <c r="E50" s="7">
-        <v>4.8548810961999997</v>
-      </c>
-      <c r="F50" s="7">
-        <v>18.744356821</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
+      <c r="B51" s="3">
+        <v>6097</v>
+      </c>
+      <c r="C51" s="4">
+        <v>356726</v>
+      </c>
+      <c r="D51" s="5">
+        <v>11.313128001000001</v>
+      </c>
+      <c r="E51" s="6">
+        <v>5.6889222641000003</v>
+      </c>
+      <c r="F51" s="6">
+        <v>19.682356742</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="4">
-        <v>6095</v>
-      </c>
-      <c r="C51" s="5">
-        <v>294294</v>
-      </c>
-      <c r="D51" s="6">
-        <v>14.278873618</v>
-      </c>
-      <c r="E51" s="7">
-        <v>7.3529789635</v>
-      </c>
-      <c r="F51" s="7">
-        <v>24.264894025</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
+      <c r="B52" s="3">
+        <v>6099</v>
+      </c>
+      <c r="C52" s="4">
+        <v>350543</v>
+      </c>
+      <c r="D52" s="5">
+        <v>21.329976525999999</v>
+      </c>
+      <c r="E52" s="6">
+        <v>11.487871446</v>
+      </c>
+      <c r="F52" s="6">
+        <v>34.764198356999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="4">
-        <v>6097</v>
-      </c>
-      <c r="C52" s="5">
-        <v>356726</v>
-      </c>
-      <c r="D52" s="6">
-        <v>11.313128001000001</v>
-      </c>
-      <c r="E52" s="7">
-        <v>5.6889222641000003</v>
-      </c>
-      <c r="F52" s="7">
-        <v>19.682356742</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
+      <c r="B53" s="3">
+        <v>6101</v>
+      </c>
+      <c r="C53" s="4">
+        <v>62277</v>
+      </c>
+      <c r="D53" s="5">
+        <v>19.180815733999999</v>
+      </c>
+      <c r="E53" s="6">
+        <v>10.035890523000001</v>
+      </c>
+      <c r="F53" s="6">
+        <v>31.821262529999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="4">
-        <v>6099</v>
-      </c>
-      <c r="C53" s="5">
-        <v>350543</v>
-      </c>
-      <c r="D53" s="6">
-        <v>21.329976525999999</v>
-      </c>
-      <c r="E53" s="7">
-        <v>11.487871446</v>
-      </c>
-      <c r="F53" s="7">
-        <v>34.764198356999998</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
+      <c r="B54" s="3">
+        <v>6103</v>
+      </c>
+      <c r="C54" s="4">
+        <v>44366</v>
+      </c>
+      <c r="D54" s="5">
+        <v>14.714268000000001</v>
+      </c>
+      <c r="E54" s="6">
+        <v>9.4409749986999998</v>
+      </c>
+      <c r="F54" s="6">
+        <v>22.75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="4">
-        <v>6101</v>
-      </c>
-      <c r="C54" s="5">
-        <v>62277</v>
-      </c>
-      <c r="D54" s="6">
-        <v>19.180815733999999</v>
-      </c>
-      <c r="E54" s="7">
-        <v>10.035890523000001</v>
-      </c>
-      <c r="F54" s="7">
-        <v>31.821262529999998</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
+      <c r="B55" s="3">
+        <v>6105</v>
+      </c>
+      <c r="C55" s="4">
+        <v>10838</v>
+      </c>
+      <c r="D55" s="5">
+        <v>9.7061033579</v>
+      </c>
+      <c r="E55" s="6">
+        <v>4.5885616947000001</v>
+      </c>
+      <c r="F55" s="6">
+        <v>17.820073016999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="4">
-        <v>6103</v>
-      </c>
-      <c r="C55" s="5">
-        <v>44366</v>
-      </c>
-      <c r="D55" s="6">
-        <v>14.714268000000001</v>
-      </c>
-      <c r="E55" s="7">
-        <v>9.4409749986999998</v>
-      </c>
-      <c r="F55" s="7">
-        <v>22.75</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
+      <c r="B56" s="3">
+        <v>6107</v>
+      </c>
+      <c r="C56" s="4">
+        <v>269929</v>
+      </c>
+      <c r="D56" s="5">
+        <v>31.503022605999998</v>
+      </c>
+      <c r="E56" s="6">
+        <v>17.978051042000001</v>
+      </c>
+      <c r="F56" s="6">
+        <v>47.988616516</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="4">
-        <v>6105</v>
-      </c>
-      <c r="C56" s="5">
-        <v>10838</v>
-      </c>
-      <c r="D56" s="6">
-        <v>9.7061033579</v>
-      </c>
-      <c r="E56" s="7">
-        <v>4.5885616947000001</v>
-      </c>
-      <c r="F56" s="7">
-        <v>17.820073016999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
+      <c r="B57" s="3">
+        <v>6109</v>
+      </c>
+      <c r="C57" s="4">
+        <v>42836</v>
+      </c>
+      <c r="D57" s="5">
+        <v>9.2677755591000004</v>
+      </c>
+      <c r="E57" s="6">
+        <v>4.5294560219999997</v>
+      </c>
+      <c r="F57" s="6">
+        <v>16.511516685</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="4">
-        <v>6107</v>
-      </c>
-      <c r="C57" s="5">
-        <v>269929</v>
-      </c>
-      <c r="D57" s="6">
-        <v>31.503022605999998</v>
-      </c>
-      <c r="E57" s="7">
-        <v>17.978051042000001</v>
-      </c>
-      <c r="F57" s="7">
-        <v>47.988616516</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
+      <c r="B58" s="3">
+        <v>6111</v>
+      </c>
+      <c r="C58" s="4">
+        <v>580222</v>
+      </c>
+      <c r="D58" s="5">
+        <v>15.893281830999999</v>
+      </c>
+      <c r="E58" s="6">
+        <v>8.1843392470000005</v>
+      </c>
+      <c r="F58" s="6">
+        <v>26.900640451000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="4">
-        <v>6109</v>
-      </c>
-      <c r="C58" s="5">
-        <v>42836</v>
-      </c>
-      <c r="D58" s="6">
-        <v>9.2677755591000004</v>
-      </c>
-      <c r="E58" s="7">
-        <v>4.5294560219999997</v>
-      </c>
-      <c r="F58" s="7">
-        <v>16.511516685</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
+      <c r="B59" s="3">
+        <v>6113</v>
+      </c>
+      <c r="C59" s="4">
+        <v>134677</v>
+      </c>
+      <c r="D59" s="5">
+        <v>15.927376332</v>
+      </c>
+      <c r="E59" s="6">
+        <v>7.9167896277000001</v>
+      </c>
+      <c r="F59" s="6">
+        <v>27.034019697000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="4">
-        <v>6111</v>
-      </c>
-      <c r="C59" s="5">
-        <v>580222</v>
-      </c>
-      <c r="D59" s="6">
-        <v>15.893281830999999</v>
-      </c>
-      <c r="E59" s="7">
-        <v>8.1843392470000005</v>
-      </c>
-      <c r="F59" s="7">
-        <v>26.900640451000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
+      <c r="B60" s="3">
+        <v>6115</v>
+      </c>
+      <c r="C60" s="4">
+        <v>44910</v>
+      </c>
+      <c r="D60" s="5">
+        <v>18.449008668000001</v>
+      </c>
+      <c r="E60" s="6">
+        <v>9.4893873030000009</v>
+      </c>
+      <c r="F60" s="6">
+        <v>30.869556019000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="4">
-        <v>6113</v>
-      </c>
-      <c r="C60" s="5">
-        <v>134677</v>
-      </c>
-      <c r="D60" s="6">
-        <v>15.927376332</v>
-      </c>
-      <c r="E60" s="7">
-        <v>7.9167896277000001</v>
-      </c>
-      <c r="F60" s="7">
-        <v>27.034019697000002</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="4">
-        <v>6115</v>
-      </c>
-      <c r="C61" s="5">
-        <v>44910</v>
-      </c>
-      <c r="D61" s="6">
-        <v>18.449008668000001</v>
-      </c>
-      <c r="E61" s="7">
-        <v>9.4893873030000009</v>
-      </c>
-      <c r="F61" s="7">
-        <v>30.869556019000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-    </row>
-    <row r="63" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="13" t="s">
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+    </row>
+    <row r="64" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-    </row>
-    <row r="64" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="15" t="s">
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+    </row>
+    <row r="65" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-    </row>
-    <row r="65" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-    </row>
-    <row r="66" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="5">
+    <mergeCell ref="A61:F61"/>
     <mergeCell ref="A62:F62"/>
     <mergeCell ref="A63:F63"/>
     <mergeCell ref="A64:F64"/>
     <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
